--- a/GSU_Cayuse_Lite.xlsx
+++ b/GSU_Cayuse_Lite.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lists" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FandA_Rates" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proposals" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Investigators" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sponsors" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subawards" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compliance" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Routing" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Approvals_Log" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tasks" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attachments" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataDictionary" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Lists" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Institution" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FandA_Rates" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Proposals" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Investigators" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sponsors" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Budget" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Subawards" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Compliance" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Routing" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Approvals_Log" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Tasks" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Attachments" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="DataDictionary" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1113,7 +1113,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1149,7 +1148,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>Cost share concurrence if any</t>
@@ -1190,7 +1188,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>Budget &amp; solicitation compliance</t>
@@ -1231,7 +1228,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>As applicable</t>
@@ -1272,7 +1268,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>Final institutional review</t>
@@ -1313,7 +1308,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>Institutional commitment approval</t>
@@ -1354,7 +1348,6 @@
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>Account setup readiness</t>
@@ -1363,10 +1356,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="D2:D2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$44:$A$51</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:F2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2:F2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$54:$A$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1445,7 +1438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,7 +1560,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1751,6 +1743,516 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>Upload cost-share letter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TSK-0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete GSU Internal Routing Form</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Attach signed PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TSK-0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>COI Disclosures for all key personnel</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PI/OSP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TSK-0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Subrecipient Commitment Form(s)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OSP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Collect UEI and F&amp;A rate docs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TSK-0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Export Control &amp; Data Security review</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>If foreign collaborators or controlled data</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TSK-0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Final Budget &amp; Justification</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OSP Pre-Award</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Check salary cap and F&amp;A base</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TSK-0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Create application in Research.gov</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OSP Pre-Award</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Confirm FOA &amp; forms</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TSK-0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dean/Provost cost-share letter (if required)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dean/Provost</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Upload letter</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TSK-0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Complete GSU Internal Routing Form</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Attach signed PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TSK-0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>COI Disclosures for all key personnel</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PI/OSP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TSK-0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Subrecipient Commitment Form(s)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OSP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Collect UEI and F&amp;A rate docs</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TSK-0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Export Control &amp; Data Security review</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>If foreign collaborators or controlled data</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TSK-0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Final Budget &amp; Justification</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OSP Pre-Award</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Check salary cap and F&amp;A base</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TSK-0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Create application in Research.gov</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OSP Pre-Award</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Confirm FOA &amp; forms</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TSK-0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dean/Provost cost-share letter (if required)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dean/Provost</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Upload letter</t>
         </is>
       </c>
     </row>
@@ -1815,7 +2317,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$71:$A$83</formula1>
     </dataValidation>
   </dataValidations>
@@ -2077,9 +2579,6 @@
           <t>Office of Sponsored Programs</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Starter placeholders; fill in institutional identifiers.</t>
@@ -2145,8 +2644,6 @@
           <t>Research</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>2025-08-15</t>
@@ -2164,14 +2661,11 @@
           <t>Instruction</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2179,14 +2673,11 @@
           <t>Other Sponsored Activity</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2199,7 +2690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2479,7 +2970,6 @@
           <t>Department Review</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>2026-01-01</t>
@@ -2496,13 +2986,11 @@
       <c r="T2" t="n">
         <v>125000</v>
       </c>
-      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
           <t>Dean; Finance</t>
@@ -2547,39 +3035,255 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSU-P-0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Supporting Secondary STEM Educator Preparation at TCUP Institutions</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NSF Funding</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Federal</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.nsf.gov/funding/opportunities/dcl-supporting-secondary-stem-educator-preparation-tcup</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Research.gov</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Department Review</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Imported by BrassLoom on 2025-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSU-P-0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Education and Broadening Participation in Earth Sciences (EAR EBP)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NSF Funding</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Federal</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.nsf.gov/funding/opportunities/ear-ebp-education-broadening-participation-earth-sciences</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Research.gov</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Department Review</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Imported by BrassLoom on 2025-08-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation sqref="I2:I2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="I2:I2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$21:$A$27</formula1>
     </dataValidation>
-    <dataValidation sqref="M2:M2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="M2:M2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$63:$A$68</formula1>
     </dataValidation>
-    <dataValidation sqref="N2:N2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="N2:N2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$14:$A$18</formula1>
     </dataValidation>
-    <dataValidation sqref="O2:O2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="O2:O2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation sqref="V2:V2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="V2:V2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="Y2:Y2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="Y2:Y2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="Z2:Z2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="Z2:Z2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="AA2:AA2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="AB2:AB2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="AC2:AC2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
-    <dataValidation sqref="AD2:AD2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="AD2:AD2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$59:$A$60</formula1>
     </dataValidation>
   </dataValidations>
@@ -2742,7 +3446,6 @@
           <t>Evolution &amp; Ecology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>10</v>
       </c>
@@ -2755,7 +3458,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E2:E2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$44:$A$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2833,7 +3536,6 @@
           <t>Federal</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>47.076</t>
@@ -2861,8 +3563,6 @@
           <t>State</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Follow state guidance</t>
@@ -2871,7 +3571,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="C2:C2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2:C2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$21:$A$27</formula1>
     </dataValidation>
   </dataValidations>
@@ -3202,8 +3902,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Use most recent GSU COI form</t>
@@ -3231,8 +3929,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Check for PII/FERPA and cloud storage plan</t>
@@ -3241,10 +3937,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C2:C2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2:C2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$30:$A$35</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D2000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D2000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>=Lists!$A$38:$A$41</formula1>
     </dataValidation>
   </dataValidations>

--- a/GSU_Cayuse_Lite.xlsx
+++ b/GSU_Cayuse_Lite.xlsx
@@ -1814,7 +1814,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2069,7 +2068,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3046,11 +3044,6 @@
           <t>Supporting Secondary STEM Educator Preparation at TCUP Institutions</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>NSF Funding</t>
@@ -3091,19 +3084,11 @@
           <t>Department Review</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>No</t>
@@ -3154,11 +3139,6 @@
           <t>Education and Broadening Participation in Earth Sciences (EAR EBP)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>NSF Funding</t>
@@ -3199,19 +3179,11 @@
           <t>Department Review</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
           <t>No</t>
